--- a/data/georgia_census/adjara/xulo/average_wages.xlsx
+++ b/data/georgia_census/adjara/xulo/average_wages.xlsx
@@ -1105,13 +1105,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAED98AC-F4DF-4E71-9E4C-66659221836E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B37274D-B295-4254-ADB0-7F01AF1B9A8F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35AF9B32-EE10-4E94-8CFE-D0CB1E0D7469}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D9DD5EF-E6DF-496D-A5DE-DBC17B55CC04}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0DB79E8-19D8-4FFF-AB29-BE95CD377655}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{650FB689-93DE-4CDA-BD8C-FFFF93339D7F}"/>
 </file>